--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
       <c r="D4">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -443,10 +443,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -443,10 +443,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>44</v>
-      </c>
       <c r="D4">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">

--- a/test/restest251.xlsx
+++ b/test/restest251.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
